--- a/python-in-excel-quick-wins-tracker.xlsx
+++ b/python-in-excel-quick-wins-tracker.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE835EA-DDA2-4CEB-8CD0-C902061AEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DEA2E-6C27-4FE2-B6B7-F261F16FA086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>1. Sample rows at random</t>
   </si>
@@ -76,6 +87,42 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Ready to record</t>
+  </si>
+  <si>
+    <t>Dataset used</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>mpg?</t>
+  </si>
+  <si>
+    <t>shampoo</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>Recorded, needs editing</t>
+  </si>
+  <si>
+    <t>Ready to record, basically</t>
+  </si>
+  <si>
+    <t>Write blog post first?</t>
+  </si>
+  <si>
+    <t>https://stringfestanalytics.com/python-in-excel-how-to-upsample-and-interpolate-time-series-data/</t>
   </si>
 </sst>
 </file>
@@ -131,11 +178,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}" name="Table1" displayName="Table1" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E53114AC-3D34-4CE0-B4E6-CF2443DBF73F}" name="Video"/>
     <tableColumn id="2" xr3:uid="{E380CDFF-6213-4EC6-9444-53BCFDF41670}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{9A959A03-96D6-4B64-A2D7-950FD574F20B}" name="Dataset used"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -404,98 +452,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/python-in-excel-quick-wins-tracker.xlsx
+++ b/python-in-excel-quick-wins-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DEA2E-6C27-4FE2-B6B7-F261F16FA086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87158455-505D-49A4-BB4F-D971D50B5653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>1. Sample rows at random</t>
   </si>
@@ -104,9 +104,6 @@
     <t>mpg?</t>
   </si>
   <si>
-    <t>shampoo</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -119,10 +116,28 @@
     <t>Ready to record, basically</t>
   </si>
   <si>
-    <t>Write blog post first?</t>
-  </si>
-  <si>
     <t>https://stringfestanalytics.com/python-in-excel-how-to-upsample-and-interpolate-time-series-data/</t>
+  </si>
+  <si>
+    <t>Basically ready to record</t>
+  </si>
+  <si>
+    <t>Need to sit through this</t>
+  </si>
+  <si>
+    <t>daily sales</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/680d185e-9bb0-8001-ae7f-9fc9f1662d8e</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/680d192a-7ecc-8001-b8e8-024afa72416c</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/680d19a4-3b50-8001-9407-6d310a6d025c</t>
   </si>
 </sst>
 </file>
@@ -178,12 +193,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16" xr:uid="{27B63A09-E74F-435E-8F53-D58DE42E50B2}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E53114AC-3D34-4CE0-B4E6-CF2443DBF73F}" name="Video"/>
     <tableColumn id="2" xr3:uid="{E380CDFF-6213-4EC6-9444-53BCFDF41670}" name="Status"/>
     <tableColumn id="3" xr3:uid="{9A959A03-96D6-4B64-A2D7-950FD574F20B}" name="Dataset used"/>
+    <tableColumn id="4" xr3:uid="{773B3506-A746-4F39-9EDE-4802191DCA65}" name="Tutorial"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,20 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -475,65 +492,68 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -544,39 +564,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -584,7 +616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -592,7 +624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -600,9 +632,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>

--- a/python-in-excel-quick-wins-tracker.xlsx
+++ b/python-in-excel-quick-wins-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87158455-505D-49A4-BB4F-D971D50B5653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DB15D-2E43-4D1F-9CC4-923FBC5ACFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,28 @@
 </workbook>
 </file>
 
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>1. Sample rows at random</t>
   </si>
@@ -122,22 +142,34 @@
     <t>Basically ready to record</t>
   </si>
   <si>
-    <t>Need to sit through this</t>
-  </si>
-  <si>
     <t>daily sales</t>
   </si>
   <si>
     <t>Tutorial</t>
   </si>
   <si>
-    <t>https://chatgpt.com/c/680d185e-9bb0-8001-ae7f-9fc9f1662d8e</t>
-  </si>
-  <si>
     <t>https://chatgpt.com/c/680d192a-7ecc-8001-b8e8-024afa72416c</t>
   </si>
   <si>
     <t>https://chatgpt.com/c/680d19a4-3b50-8001-9407-6d310a6d025c</t>
+  </si>
+  <si>
+    <t>Tempted to want to write a blogpost lol</t>
+  </si>
+  <si>
+    <t>penguins?</t>
+  </si>
+  <si>
+    <t>Actually in good shape!</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>Decent</t>
   </si>
 </sst>
 </file>
@@ -472,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -493,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -535,6 +567,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -543,11 +578,14 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -568,22 +606,28 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -591,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -612,6 +656,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -620,8 +667,11 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
